--- a/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D802BE1F-0ACE-4E2A-9A91-6A6648F68ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E451B3C-B226-4052-8A56-B077D8C0C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFE79F48-C039-4A27-8D0B-FFD6616FF1D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DDDE0F6-990D-433F-9188-785C88A7C7D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>60,16%</t>
   </si>
   <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,84%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>61,56%</t>
   </si>
   <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>62,9%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,112 +251,106 @@
     <t>61,25%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,7 +362,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -380,13 +374,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>70,0%</t>
+    <t>69,98%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>32,65%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,61 +389,61 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,0%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66E27F2-C4A5-4A15-BEA0-998DC4733018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B00B73F-BC74-4D47-8C07-7CC0750919B0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1066,7 +1060,7 @@
         <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>129735</v>
+        <v>129734</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1117,7 +1111,7 @@
         <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>268934</v>
+        <v>268933</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1608,13 +1602,13 @@
         <v>82437</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1623,13 +1617,13 @@
         <v>31887</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -1638,13 +1632,13 @@
         <v>114324</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1653,13 @@
         <v>47302</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1674,13 +1668,13 @@
         <v>22346</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1689,13 +1683,13 @@
         <v>69648</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1745,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1757,13 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1778,13 +1772,13 @@
         <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1793,13 +1787,13 @@
         <v>1718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1808,13 @@
         <v>4217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1829,13 +1823,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1844,13 +1838,13 @@
         <v>5164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1912,13 @@
         <v>972221</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>419</v>
@@ -1933,13 +1927,13 @@
         <v>432331</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1343</v>
@@ -1948,13 +1942,13 @@
         <v>1404553</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1963,13 @@
         <v>601581</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -1984,13 +1978,13 @@
         <v>405661</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>962</v>
@@ -1999,13 +1993,13 @@
         <v>1007241</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E451B3C-B226-4052-8A56-B077D8C0C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8DCE81-007E-4ECB-A6E4-12F8246619AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DDDE0F6-990D-433F-9188-785C88A7C7D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEBEF387-27EB-4878-9760-C91A323CCA15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>60,16%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,84%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,31 +140,31 @@
     <t>56,75%</t>
   </si>
   <si>
-    <t>66,43%</t>
+    <t>66,11%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>33,89%</t>
   </si>
   <si>
     <t>43,25%</t>
@@ -173,19 +173,19 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,163 +194,169 @@
     <t>62,9%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>56,09%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>55/64</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,7 +368,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>67,35%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -374,13 +380,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>69,98%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>32,65%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -389,61 +395,61 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,02%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B00B73F-BC74-4D47-8C07-7CC0750919B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747AA5D6-494C-41DB-88FC-53267EA6EDE3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1060,7 +1066,7 @@
         <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>129734</v>
+        <v>129735</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1111,7 +1117,7 @@
         <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>268933</v>
+        <v>268934</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1602,13 +1608,13 @@
         <v>82437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -1617,13 +1623,13 @@
         <v>31887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -1632,13 +1638,13 @@
         <v>114324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1659,13 @@
         <v>47302</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -1668,13 +1674,13 @@
         <v>22346</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -1683,13 +1689,13 @@
         <v>69648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1763,13 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1772,13 +1778,13 @@
         <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1787,13 +1793,13 @@
         <v>1718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1814,13 @@
         <v>4217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1823,13 +1829,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1838,13 +1844,13 @@
         <v>5164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1918,13 @@
         <v>972221</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>419</v>
@@ -1927,13 +1933,13 @@
         <v>432331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1343</v>
@@ -1942,13 +1948,13 @@
         <v>1404553</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1969,13 @@
         <v>601581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>383</v>
@@ -1978,13 +1984,13 @@
         <v>405661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>962</v>
@@ -1993,13 +1999,13 @@
         <v>1007241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D8DCE81-007E-4ECB-A6E4-12F8246619AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4DC6A5-7B85-4616-8FB1-95B1481DD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEBEF387-27EB-4878-9760-C91A323CCA15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45EF823E-FE15-4B08-9975-D74E858774D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>39,84%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>48,24%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>61,56%</t>
   </si>
   <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>62,9%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>54,5%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>61,25%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>44,84%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>63,54%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -380,7 +380,7 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>70,0%</t>
   </si>
   <si>
     <t>83,7%</t>
@@ -395,61 +395,61 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>28,86%</t>
+    <t>30,0%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747AA5D6-494C-41DB-88FC-53267EA6EDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392573A7-9C35-4700-9958-D7C77A905F9D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A04_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4DC6A5-7B85-4616-8FB1-95B1481DD803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F04DD16-00CA-4B01-8E41-B7F90416CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{45EF823E-FE15-4B08-9975-D74E858774D1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{15F12CD0-6B6D-4131-8619-26A4D313A468}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="142">
   <si>
     <t>Población según si hay un servicio de prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 35,4%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>61,56%</t>
@@ -188,7 +188,7 @@
     <t>44,61%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>62,9%</t>
@@ -245,7 +245,7 @@
     <t>43,37%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>61,25%</t>
@@ -302,7 +302,7 @@
     <t>48,14%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>63,54%</t>
@@ -359,16 +359,16 @@
     <t>45,37%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -377,25 +377,34 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>61,78%</t>
@@ -864,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392573A7-9C35-4700-9958-D7C77A905F9D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D017DD9-EDDC-415C-9848-E44DC10BCF12}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1066,7 +1075,7 @@
         <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>129735</v>
+        <v>129734</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1117,7 +1126,7 @@
         <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>268934</v>
+        <v>268933</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1516,7 +1525,7 @@
         <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>77292</v>
+        <v>77293</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1567,7 +1576,7 @@
         <v>134</v>
       </c>
       <c r="I15" s="7">
-        <v>140116</v>
+        <v>140117</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1757,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1781,22 +1790,22 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1718</v>
+        <v>897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -1808,19 +1817,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>4217</v>
+        <v>2568</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1829,25 +1838,25 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>5164</v>
+        <v>3514</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>112</v>
@@ -1859,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1898,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>6882</v>
+        <v>4411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1915,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>924</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>972221</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="7">
-        <v>419</v>
-      </c>
-      <c r="I22" s="7">
-        <v>432331</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>1343</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1404553</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +1970,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>579</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>601581</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
-        <v>383</v>
-      </c>
-      <c r="I23" s="7">
-        <v>405661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>962</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1007241</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2019,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>924</v>
+      </c>
+      <c r="D25" s="7">
+        <v>972221</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="7">
+        <v>419</v>
+      </c>
+      <c r="I25" s="7">
+        <v>432331</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1343</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1404553</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>579</v>
+      </c>
+      <c r="D26" s="7">
+        <v>601581</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="7">
+        <v>383</v>
+      </c>
+      <c r="I26" s="7">
+        <v>405661</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="7">
+        <v>962</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1007241</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1503</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1573802</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>802</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>837992</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2305</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2411794</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
